--- a/2022年下半年/2022年下半年-芒海小学-记账本.xlsx
+++ b/2022年下半年/2022年下半年-芒海小学-记账本.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记账\2022年下半年\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\2022年下半年\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30E4566-02EC-483F-B38B-CCACD8805BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4673E2-E0C2-49FD-8FEA-56388ECDA30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10月支出" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>时间流水</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{710F5598-94B7-4A81-A5DB-6B797F55C494}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{710F5598-94B7-4A81-A5DB-6B797F55C494}">
       <text>
         <r>
           <rPr>
@@ -399,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中心小学工作人员费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16-18号十位老师在学校吃饭的费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,9 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>列2</t>
-  </si>
-  <si>
     <t>单价/元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,74 +451,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>回校挂灯笼、树刷粉（水+饭）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡三个860元（张肖迷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年鞭炮、宝烛等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给上级领导拜年购鸡与红包（殷校1000元红包、2个鸡；毛校一个鸡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买扫把150元，校垃圾车维修费100元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招待中心校领导早餐费</t>
+  </si>
+  <si>
+    <t>给上级领导购羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯笼100个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给南山小学陈老师录入体育成绩辛苦费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺年（芒海游神）鞭炮、鸡、红包、烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工红包，每个老师一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心小学工作人员费用（教办领导到校做抗原）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校期末结账早午餐</t>
+  </si>
+  <si>
     <t>芒海小学2022年12月电费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回校挂灯笼、树刷粉（水+饭）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡三个860元（张肖迷）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过年鞭炮、宝烛等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给上级领导拜年购鸡与红包（殷校1000元红包、2个鸡；毛校一个鸡）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买扫把150元，校垃圾车维修费100元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招待中心校领导早餐费</t>
-  </si>
-  <si>
-    <t>给上级领导购羊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯笼100个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给南山小学陈老师录入体育成绩辛苦费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校期末结账早午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺年（芒海游神）鞭炮、鸡、红包、烟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还没开单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算错了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开工红包，每个老师一个</t>
+  </si>
+  <si>
+    <t>陈明珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正月元宵节买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园门口灯笼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +537,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,13 +588,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -615,8 +607,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,14 +661,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -802,21 +805,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right style="thin">
-        <color theme="8"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -824,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,28 +839,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,7 +911,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,47 +918,91 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,7 +1010,188 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="8"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1040,6 +1240,81 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="8"/>
+        </left>
+        <right style="thin">
+          <color theme="8"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1565,9 +1840,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1642,68 +1914,109 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7B4607E2-4982-4664-90B8-5E93FEFB2347}" name="表3" displayName="表3" ref="A1:E5" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7B4607E2-4982-4664-90B8-5E93FEFB2347}" name="表3" displayName="表3" ref="A1:E5" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
   <autoFilter ref="A1:E5" xr:uid="{7B4607E2-4982-4664-90B8-5E93FEFB2347}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A27B9042-6051-4765-8BFD-8243DAF79CAE}" name="时间" totalsRowLabel="汇总" totalsRowDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{6DC0592F-B100-4677-A682-FFB9E9815237}" name="经办人" totalsRowDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{C6BEE17F-A5A8-499E-B451-D2BB6124F307}" name="用途" totalsRowDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{B0ECDE8D-3C1A-4AB1-82A6-E9B2608BCA7B}" name="支出（付款）/元" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{01F250F1-D9F5-4825-A542-CA6879B080E1}" name="备注"/>
+    <tableColumn id="1" xr3:uid="{A27B9042-6051-4765-8BFD-8243DAF79CAE}" name="时间" totalsRowLabel="汇总" dataDxfId="7" totalsRowDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{6DC0592F-B100-4677-A682-FFB9E9815237}" name="经办人" dataDxfId="6" totalsRowDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{C6BEE17F-A5A8-499E-B451-D2BB6124F307}" name="用途" dataDxfId="5" totalsRowDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{B0ECDE8D-3C1A-4AB1-82A6-E9B2608BCA7B}" name="支出（付款）/元" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{01F250F1-D9F5-4825-A542-CA6879B080E1}" name="备注" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FA694CC-B36E-4516-BAFC-4BA94AE6BD01}" name="表2" displayName="表2" ref="A1:F31" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FA694CC-B36E-4516-BAFC-4BA94AE6BD01}" name="表2" displayName="表2" ref="A1:F31" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <autoFilter ref="A1:F31" xr:uid="{6FA694CC-B36E-4516-BAFC-4BA94AE6BD01}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
+    <sortCondition ref="A1:A31"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8DF329B2-B68D-4384-B66D-A668A9412E08}" name="时间" totalsRowLabel="汇总" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{53DF1CBF-34EF-4BE9-AAA7-6DB3AEB5B479}" name="经办人" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{DE9183CD-9629-4043-91FC-F895D199763B}" name="用途" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{32E76C13-8412-4DF1-B0C6-3F1B9955648A}" name="支出（付款）/元" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{3D4CBFB4-3A3A-4426-AE80-593D30BBD9ED}" name="备注" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{8DF329B2-B68D-4384-B66D-A668A9412E08}" name="时间" totalsRowLabel="汇总" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{53DF1CBF-34EF-4BE9-AAA7-6DB3AEB5B479}" name="经办人" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{DE9183CD-9629-4043-91FC-F895D199763B}" name="用途" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{32E76C13-8412-4DF1-B0C6-3F1B9955648A}" name="支出（付款）/元" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{3D4CBFB4-3A3A-4426-AE80-593D30BBD9ED}" name="备注" dataDxfId="53" totalsRowDxfId="52"/>
     <tableColumn id="6" xr3:uid="{33B52504-148A-41F4-91A5-D299E26C6E10}" name="列1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2CBE747-014E-46BF-9E86-DD9FCE5447EA}" name="表6" displayName="表6" ref="A1:G1048572" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21">
-  <autoFilter ref="A1:G1048572" xr:uid="{A2CBE747-014E-46BF-9E86-DD9FCE5447EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DC6A199-5132-4A17-B976-BB4BFC871F67}" name="表7" displayName="表7" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" headerRowBorderDxfId="17">
+  <autoFilter ref="A1:G1048576" xr:uid="{2DC6A199-5132-4A17-B976-BB4BFC871F67}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C760D172-BC01-4230-879E-99FC6C53B685}" name="时间" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{4AB44D61-934F-4B1F-B2CA-BD65205C617B}" name="经办人" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{F867565A-2F2C-4D5F-A372-84F86688CA14}" name="用途" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{AA041311-52A6-4784-A674-1D95FA70390B}" name="单价" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00CA4C0C-0049-46D7-8801-0514524688FF}" name="数量" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{92300F72-B1D6-4699-8126-AAF3E8A586A1}" name="支出（付款）/元" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{6A773B35-603B-4C3D-9B52-D9E8C5D6ADFB}" name="备注" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D8119A34-6038-40BD-A8E8-0023E2CB59D9}" name="时间" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{0741F468-925E-446E-9BDA-1B753A7E002A}" name="经办人" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{F89B1896-9DF6-44CC-921F-EC1C0CBBF583}" name="用途" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{7952C4A6-3015-4F75-901E-21246C0033FA}" name="单价/元" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E4E19C84-D8E8-4AF4-BCC2-BAB746CB3375}" name="数量" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{E452E94D-BEF0-45A0-A2ED-FB13BA9A6838}" name="支出（付款）/元" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{B50EC1B7-E3F0-4E49-9F4E-565AE4F2C2BB}" name="备注" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6B0FEC07-A289-4DD7-9AA3-942A208569DC}" name="表4" displayName="表4" ref="A1:C4" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:C4" xr:uid="{6B0FEC07-A289-4DD7-9AA3-942A208569DC}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{706C33D8-2539-44AD-8F09-1C69D1BADD10}" name="时间" totalsRowLabel="汇总" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{5B85BA76-96A6-4E7F-BA96-E854A4E048D2}" name="金额" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6A2309A0-B070-483F-B4FB-CC587230D6DE}" name="备注" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2CBE747-014E-46BF-9E86-DD9FCE5447EA}" name="表6" displayName="表6" ref="A1:G1048572" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50">
+  <autoFilter ref="A1:G1048572" xr:uid="{A2CBE747-014E-46BF-9E86-DD9FCE5447EA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+    <sortCondition ref="A1:A1048572"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C760D172-BC01-4230-879E-99FC6C53B685}" name="时间" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{4AB44D61-934F-4B1F-B2CA-BD65205C617B}" name="经办人" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{F867565A-2F2C-4D5F-A372-84F86688CA14}" name="用途" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{AA041311-52A6-4784-A674-1D95FA70390B}" name="单价" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00CA4C0C-0049-46D7-8801-0514524688FF}" name="数量" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{92300F72-B1D6-4699-8126-AAF3E8A586A1}" name="支出（付款）/元" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{6A773B35-603B-4C3D-9B52-D9E8C5D6ADFB}" name="备注" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B194F46E-8F57-422C-8A5F-6D44597A2535}" name="表1" displayName="表1" ref="A1:B6" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F8EE32FE-0618-4B9E-B590-EE0DA799BD16}" name="表5" displayName="表5" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+  <autoFilter ref="A1:G1048576" xr:uid="{F8EE32FE-0618-4B9E-B590-EE0DA799BD16}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1048576">
+    <sortCondition ref="A1:A1048576"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A2280607-1D6D-4D05-B165-3E550513431A}" name="时间" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{A98C89E6-8102-4103-9893-F5090D6B7D07}" name="经办人" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{52C44384-E1BF-4D2E-9671-EB9DD3A26F97}" name="用途" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{E25C1E46-CA2E-4E5B-8F1C-1F74EA447813}" name="单价" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{ED73F9A5-500E-4CEA-83A2-46B7DE49EBDB}" name="数量" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{82292D8B-CA17-45C0-8161-E33C5CEED4CB}" name="支出（付款）/元" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{20B76B54-B983-45E5-BC42-BC41E5A138B7}" name="备注" dataDxfId="31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6B0FEC07-A289-4DD7-9AA3-942A208569DC}" name="表4" displayName="表4" ref="A1:C4" headerRowDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="A1:C4" xr:uid="{6B0FEC07-A289-4DD7-9AA3-942A208569DC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{706C33D8-2539-44AD-8F09-1C69D1BADD10}" name="时间" totalsRowLabel="汇总" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{5B85BA76-96A6-4E7F-BA96-E854A4E048D2}" name="金额" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{6A2309A0-B070-483F-B4FB-CC587230D6DE}" name="备注" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B194F46E-8F57-422C-8A5F-6D44597A2535}" name="表1" displayName="表1" ref="A1:B6" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
   <autoFilter ref="A1:B6" xr:uid="{B194F46E-8F57-422C-8A5F-6D44597A2535}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C0B6F54A-1A21-4D70-A06D-5D3A47451927}" name="时间/月" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9483B301-81B1-46F7-A5CE-3716BB6B3AB7}" name="总支出/元" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{C0B6F54A-1A21-4D70-A06D-5D3A47451927}" name="时间/月" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{9483B301-81B1-46F7-A5CE-3716BB6B3AB7}" name="总支出/元" dataDxfId="18">
       <calculatedColumnFormula>SUM('11月支出'!D:D)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1976,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C324823-1A2E-4DED-9091-D19787F997CE}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1989,93 +2302,93 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="49" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="56" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+    <row r="2" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57">
         <v>44855</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="59">
         <v>2600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60">
         <v>44859</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="62">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+    <row r="4" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63">
         <v>44863</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="65">
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
+    <row r="5" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46">
         <v>44864</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="48">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57">
         <v>44865</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="66">
         <v>420</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="67"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2092,8 +2405,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2108,22 +2421,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="5"/>
@@ -2138,439 +2451,439 @@
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="15">
         <v>630</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>44871</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="19">
-        <v>120</v>
-      </c>
-      <c r="E3" s="21"/>
+      <c r="A3" s="8">
+        <v>44869</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="14">
+        <v>398</v>
+      </c>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>44873</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="18">
-        <v>60</v>
-      </c>
-      <c r="E4" s="22"/>
+      <c r="A4" s="9">
+        <v>44870</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15">
+        <v>88</v>
+      </c>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44874</v>
+        <v>44871</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="19">
-        <v>395</v>
-      </c>
-      <c r="E5" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="15">
+        <v>120</v>
+      </c>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>44874</v>
+        <v>44872</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="18">
-        <v>500</v>
-      </c>
-      <c r="E6" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="14">
+        <v>60</v>
+      </c>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <v>44874</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>44873</v>
+      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="19">
-        <v>45</v>
-      </c>
-      <c r="E7" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="15">
+        <v>30</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>44874</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>44873</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="18">
-        <v>200</v>
-      </c>
-      <c r="E8" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="14">
+        <v>30</v>
+      </c>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <v>44875</v>
+        <v>44873</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="19">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15">
         <v>30</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>44875</v>
+        <v>44873</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="18">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14">
         <v>30</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <v>44875</v>
+        <v>44873</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="19">
+        <v>20</v>
+      </c>
+      <c r="D11" s="15">
         <v>30</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>44875</v>
+        <v>44873</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18">
-        <v>30</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="D12" s="14">
+        <v>60</v>
+      </c>
+      <c r="E12" s="20">
+        <f>SUM(D7:D12)</f>
+        <v>210</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>44875</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="19">
-        <v>30</v>
-      </c>
-      <c r="E13" s="23"/>
+      <c r="A13" s="8">
+        <v>44873</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="14">
+        <v>899</v>
+      </c>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>44875</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="18">
-        <v>60</v>
-      </c>
-      <c r="E14" s="24">
-        <f>SUM(D9:D14)</f>
-        <v>210</v>
-      </c>
+      <c r="A14" s="9">
+        <v>44873</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1380</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="19">
-        <v>88</v>
-      </c>
-      <c r="E15" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="15">
+        <v>395</v>
+      </c>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="18">
-        <v>899</v>
-      </c>
-      <c r="E16" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="14">
+        <v>500</v>
+      </c>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1380</v>
-      </c>
-      <c r="E17" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="15">
+        <v>45</v>
+      </c>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
+        <v>44874</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="14">
+        <v>200</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>44876</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D19" s="14">
         <v>1600</v>
       </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>44876</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D20" s="15">
         <v>200</v>
       </c>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>44880</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D21" s="14">
         <v>853</v>
       </c>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>44880</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D22" s="15">
         <v>158</v>
       </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>44882</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D23" s="14">
         <v>1638</v>
       </c>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>44883</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D24" s="15">
         <v>1132.6199999999999</v>
       </c>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>44883</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D25" s="14">
         <v>480</v>
       </c>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>44883</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D26" s="15">
         <v>200</v>
       </c>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>44884</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D27" s="14">
         <v>330</v>
       </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
         <v>44886</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D28" s="42">
         <v>145</v>
       </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
+      <c r="E28" s="43"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>44886</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D29" s="16">
         <v>250</v>
       </c>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
         <v>44890</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D30" s="16">
         <v>165</v>
       </c>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
         <v>44894</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D31" s="16">
         <v>100</v>
       </c>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <v>44869</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="20">
-        <v>398</v>
-      </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2584,15 +2897,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFCE85-0C1A-4EF3-BFDD-317252E50D15}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
@@ -2602,35 +2915,32 @@
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="37">
-        <v>44897</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>44899</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>50</v>
@@ -2642,8 +2952,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
         <v>44899</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2656,8 +2966,8 @@
         <v>1022.77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
         <v>44899</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2670,8 +2980,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
         <v>44900</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2684,8 +2994,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="37">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
         <v>44900</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2698,8 +3008,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="37">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
         <v>44904</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2712,8 +3022,8 @@
         <v>926</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="37">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
         <v>44904</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2726,8 +3036,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="37">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
         <v>44906</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2740,8 +3050,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
         <v>44909</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2754,8 +3064,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
         <v>44909</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2768,8 +3078,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="37">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
         <v>44909</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2782,8 +3092,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
         <v>44909</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2796,8 +3106,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
         <v>44911</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2807,23 +3117,23 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="37">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
         <v>44913</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3">
         <f>160+50+53+319+88+20</f>
@@ -2831,7 +3141,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
+      <c r="A17" s="33">
         <v>44916</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2845,27 +3155,27 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
+      <c r="A18" s="33">
         <v>44918</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3">
         <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
+      <c r="A19" s="33">
         <v>44921</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2878,42 +3188,42 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
+    <row r="20" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44">
         <v>44923</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="C20" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="39">
         <v>4480</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
+      <c r="A21" s="33">
         <v>44923</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1">
         <v>3.5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3">
         <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="37">
+      <c r="A22" s="33">
         <v>44923</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2926,47 +3236,47 @@
         <v>55</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="37">
+      <c r="A23" s="33">
         <v>44924</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1">
         <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F23" s="3">
         <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="37">
+      <c r="A24" s="33">
         <v>44924</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1">
         <v>29.9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="3">
         <v>29.9</v>
@@ -2976,20 +3286,23 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF940977-DBB8-4822-B389-2267D28282CA}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.4140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
@@ -3000,30 +3313,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+      <c r="A2" s="36">
         <v>44927</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3037,7 +3350,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+      <c r="A3" s="36">
         <v>44927</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3047,128 +3360,145 @@
         <v>76</v>
       </c>
       <c r="F3" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50">
+        <v>44928</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="48">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51">
         <v>44932</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53">
+        <v>641.64</v>
+      </c>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>44934</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>44937</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="48">
+        <v>1860</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>44940</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="48">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
+        <v>44943</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="E9" s="47">
+        <v>100</v>
+      </c>
+      <c r="F9" s="48">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
+        <v>44943</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="48">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51">
+        <v>44945</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="3">
-        <v>641.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
-        <v>44937</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53">
+        <v>140</v>
+      </c>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>44945</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="3">
-        <v>1860</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
-        <v>44943</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="3">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50">
-        <v>44945</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="52">
-        <v>140</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
-        <v>44945</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="47">
+      <c r="F12" s="48">
         <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
-        <v>44934</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="46">
-        <v>3.5</v>
-      </c>
-      <c r="E9" s="46">
-        <v>100</v>
-      </c>
-      <c r="F9" s="47">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
-        <v>44934</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
-        <v>44928</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="47">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3183,111 +3513,120 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BBA5D1-FE87-4090-8654-9D8E647A6B6D}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.25" style="37" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.08203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="1"/>
-    <col min="6" max="6" width="27.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46">
+        <v>44958</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53">
+      <c r="F2" s="48">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46">
+        <v>44959</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48">
+        <v>250</v>
+      </c>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
         <v>44960</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="55">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
         <v>2659</v>
       </c>
-      <c r="G2" s="54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48">
-        <v>44959</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="47">
-        <v>250</v>
-      </c>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
-        <v>44958</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="47">
-        <v>237</v>
-      </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
+      <c r="A5" s="45">
         <v>44961</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1">
         <v>28</v>
       </c>
       <c r="F5" s="3">
         <v>2800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>44960</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="3">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3295,6 +3634,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3308,13 +3650,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="34" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
     <col min="3" max="3" width="60.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3325,7 +3667,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="37">
+      <c r="A2" s="33">
         <v>44907</v>
       </c>
       <c r="B2" s="3">
@@ -3336,7 +3678,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
+      <c r="A3" s="33">
         <v>44925</v>
       </c>
       <c r="B3" s="3">
@@ -3347,7 +3689,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
+      <c r="A4" s="33">
         <v>44928</v>
       </c>
       <c r="B4" s="3">
@@ -3371,14 +3713,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6044A0AF-637D-4153-B822-2E80B9B8F304}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="29" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.9140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.58203125" style="2" customWidth="1"/>
@@ -3386,33 +3728,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+      <c r="A2" s="28">
         <v>44835</v>
       </c>
       <c r="B2" s="3">
         <f>SUM('10月支出'!D:D)</f>
         <v>4125</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <f>SUM(入账!B:B)</f>
         <v>39000</v>
       </c>
@@ -3420,62 +3762,62 @@
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32">
+      <c r="A3" s="28">
         <v>44866</v>
       </c>
       <c r="B3" s="3">
         <f>SUM('11月支出'!D:D)</f>
         <v>12176.619999999999</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="26">
         <f>SUM(B:B)</f>
-        <v>39036.93</v>
+        <v>39621.93</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+      <c r="A4" s="28">
         <v>44896</v>
       </c>
       <c r="B4" s="3">
         <f>SUM('12月支出'!F:F)</f>
         <v>12428.67</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="26">
         <f>D2-D3</f>
-        <v>-36.930000000000291</v>
+        <v>-621.93000000000029</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+      <c r="A5" s="28">
         <v>44927</v>
       </c>
       <c r="B5" s="3">
         <f>SUM('1月支出'!F:F)</f>
-        <v>4360.6399999999994</v>
+        <v>4434.6399999999994</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+      <c r="A6" s="28">
         <v>44928</v>
       </c>
       <c r="B6" s="3">
         <f>SUM('2月支出'!F:F)</f>
-        <v>5946</v>
+        <v>6457</v>
       </c>
     </row>
   </sheetData>

--- a/2022年下半年/2022年下半年-芒海小学-记账本.xlsx
+++ b/2022年下半年/2022年下半年-芒海小学-记账本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\2022年下半年\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4673E2-E0C2-49FD-8FEA-56388ECDA30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFFFAB-2F64-4146-93CC-18C0B6DCA9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10月支出" sheetId="5" r:id="rId1"/>
@@ -812,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,9 +940,6 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,6 +1000,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,117 +1018,93 @@
   </cellStyles>
   <dxfs count="73">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="44" formatCode="yyyy&quot;年&quot;m&quot;月&quot;"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="8"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1163,9 +1145,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1182,94 +1161,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="44" formatCode="yyyy&quot;年&quot;m&quot;月&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1336,7 +1229,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1829,6 +1722,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1840,6 +1747,21 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1850,6 +1772,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1860,6 +1796,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1871,6 +1821,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="8"/>
@@ -1878,6 +1842,20 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="8"/>
@@ -1894,11 +1872,39 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color theme="8"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1914,31 +1920,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7B4607E2-4982-4664-90B8-5E93FEFB2347}" name="表3" displayName="表3" ref="A1:E5" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7B4607E2-4982-4664-90B8-5E93FEFB2347}" name="表3" displayName="表3" ref="A1:E5" headerRowDxfId="72" dataDxfId="70" totalsRowDxfId="68" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="67">
   <autoFilter ref="A1:E5" xr:uid="{7B4607E2-4982-4664-90B8-5E93FEFB2347}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A27B9042-6051-4765-8BFD-8243DAF79CAE}" name="时间" totalsRowLabel="汇总" dataDxfId="7" totalsRowDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{6DC0592F-B100-4677-A682-FFB9E9815237}" name="经办人" dataDxfId="6" totalsRowDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{C6BEE17F-A5A8-499E-B451-D2BB6124F307}" name="用途" dataDxfId="5" totalsRowDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{B0ECDE8D-3C1A-4AB1-82A6-E9B2608BCA7B}" name="支出（付款）/元" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{01F250F1-D9F5-4825-A542-CA6879B080E1}" name="备注" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A27B9042-6051-4765-8BFD-8243DAF79CAE}" name="时间" totalsRowLabel="汇总" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{6DC0592F-B100-4677-A682-FFB9E9815237}" name="经办人" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{C6BEE17F-A5A8-499E-B451-D2BB6124F307}" name="用途" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{B0ECDE8D-3C1A-4AB1-82A6-E9B2608BCA7B}" name="支出（付款）/元" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{01F250F1-D9F5-4825-A542-CA6879B080E1}" name="备注" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FA694CC-B36E-4516-BAFC-4BA94AE6BD01}" name="表2" displayName="表2" ref="A1:F31" headerRowDxfId="65" headerRowBorderDxfId="64" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FA694CC-B36E-4516-BAFC-4BA94AE6BD01}" name="表2" displayName="表2" ref="A1:F31" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <autoFilter ref="A1:F31" xr:uid="{6FA694CC-B36E-4516-BAFC-4BA94AE6BD01}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8DF329B2-B68D-4384-B66D-A668A9412E08}" name="时间" totalsRowLabel="汇总" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{53DF1CBF-34EF-4BE9-AAA7-6DB3AEB5B479}" name="经办人" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{DE9183CD-9629-4043-91FC-F895D199763B}" name="用途" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{32E76C13-8412-4DF1-B0C6-3F1B9955648A}" name="支出（付款）/元" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{3D4CBFB4-3A3A-4426-AE80-593D30BBD9ED}" name="备注" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{8DF329B2-B68D-4384-B66D-A668A9412E08}" name="时间" totalsRowLabel="汇总" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{53DF1CBF-34EF-4BE9-AAA7-6DB3AEB5B479}" name="经办人" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{DE9183CD-9629-4043-91FC-F895D199763B}" name="用途" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{32E76C13-8412-4DF1-B0C6-3F1B9955648A}" name="支出（付款）/元" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{3D4CBFB4-3A3A-4426-AE80-593D30BBD9ED}" name="备注" dataDxfId="45" totalsRowDxfId="44"/>
     <tableColumn id="6" xr3:uid="{33B52504-148A-41F4-91A5-D299E26C6E10}" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -1946,77 +1952,77 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DC6A199-5132-4A17-B976-BB4BFC871F67}" name="表7" displayName="表7" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2DC6A199-5132-4A17-B976-BB4BFC871F67}" name="表7" displayName="表7" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
   <autoFilter ref="A1:G1048576" xr:uid="{2DC6A199-5132-4A17-B976-BB4BFC871F67}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D8119A34-6038-40BD-A8E8-0023E2CB59D9}" name="时间" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{0741F468-925E-446E-9BDA-1B753A7E002A}" name="经办人" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{F89B1896-9DF6-44CC-921F-EC1C0CBBF583}" name="用途" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{7952C4A6-3015-4F75-901E-21246C0033FA}" name="单价/元" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{E4E19C84-D8E8-4AF4-BCC2-BAB746CB3375}" name="数量" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{E452E94D-BEF0-45A0-A2ED-FB13BA9A6838}" name="支出（付款）/元" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{B50EC1B7-E3F0-4E49-9F4E-565AE4F2C2BB}" name="备注" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{D8119A34-6038-40BD-A8E8-0023E2CB59D9}" name="时间" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{0741F468-925E-446E-9BDA-1B753A7E002A}" name="经办人" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{F89B1896-9DF6-44CC-921F-EC1C0CBBF583}" name="用途" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{7952C4A6-3015-4F75-901E-21246C0033FA}" name="单价/元" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{E4E19C84-D8E8-4AF4-BCC2-BAB746CB3375}" name="数量" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{E452E94D-BEF0-45A0-A2ED-FB13BA9A6838}" name="支出（付款）/元" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{B50EC1B7-E3F0-4E49-9F4E-565AE4F2C2BB}" name="备注" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2CBE747-014E-46BF-9E86-DD9FCE5447EA}" name="表6" displayName="表6" ref="A1:G1048572" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A2CBE747-014E-46BF-9E86-DD9FCE5447EA}" name="表6" displayName="表6" ref="A1:G1048572" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32">
   <autoFilter ref="A1:G1048572" xr:uid="{A2CBE747-014E-46BF-9E86-DD9FCE5447EA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="A1:A1048572"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C760D172-BC01-4230-879E-99FC6C53B685}" name="时间" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{4AB44D61-934F-4B1F-B2CA-BD65205C617B}" name="经办人" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{F867565A-2F2C-4D5F-A372-84F86688CA14}" name="用途" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{AA041311-52A6-4784-A674-1D95FA70390B}" name="单价" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00CA4C0C-0049-46D7-8801-0514524688FF}" name="数量" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{92300F72-B1D6-4699-8126-AAF3E8A586A1}" name="支出（付款）/元" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{6A773B35-603B-4C3D-9B52-D9E8C5D6ADFB}" name="备注" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{C760D172-BC01-4230-879E-99FC6C53B685}" name="时间" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{4AB44D61-934F-4B1F-B2CA-BD65205C617B}" name="经办人" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{F867565A-2F2C-4D5F-A372-84F86688CA14}" name="用途" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{AA041311-52A6-4784-A674-1D95FA70390B}" name="单价" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00CA4C0C-0049-46D7-8801-0514524688FF}" name="数量" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{92300F72-B1D6-4699-8126-AAF3E8A586A1}" name="支出（付款）/元" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{6A773B35-603B-4C3D-9B52-D9E8C5D6ADFB}" name="备注" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F8EE32FE-0618-4B9E-B590-EE0DA799BD16}" name="表5" displayName="表5" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F8EE32FE-0618-4B9E-B590-EE0DA799BD16}" name="表5" displayName="表5" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
   <autoFilter ref="A1:G1048576" xr:uid="{F8EE32FE-0618-4B9E-B590-EE0DA799BD16}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1048576">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A2280607-1D6D-4D05-B165-3E550513431A}" name="时间" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{A98C89E6-8102-4103-9893-F5090D6B7D07}" name="经办人" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{52C44384-E1BF-4D2E-9671-EB9DD3A26F97}" name="用途" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{E25C1E46-CA2E-4E5B-8F1C-1F74EA447813}" name="单价" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{ED73F9A5-500E-4CEA-83A2-46B7DE49EBDB}" name="数量" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{82292D8B-CA17-45C0-8161-E33C5CEED4CB}" name="支出（付款）/元" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{20B76B54-B983-45E5-BC42-BC41E5A138B7}" name="备注" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{A2280607-1D6D-4D05-B165-3E550513431A}" name="时间" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A98C89E6-8102-4103-9893-F5090D6B7D07}" name="经办人" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{52C44384-E1BF-4D2E-9671-EB9DD3A26F97}" name="用途" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{E25C1E46-CA2E-4E5B-8F1C-1F74EA447813}" name="单价" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{ED73F9A5-500E-4CEA-83A2-46B7DE49EBDB}" name="数量" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{82292D8B-CA17-45C0-8161-E33C5CEED4CB}" name="支出（付款）/元" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{20B76B54-B983-45E5-BC42-BC41E5A138B7}" name="备注" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6B0FEC07-A289-4DD7-9AA3-942A208569DC}" name="表4" displayName="表4" ref="A1:C4" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6B0FEC07-A289-4DD7-9AA3-942A208569DC}" name="表4" displayName="表4" ref="A1:C4" headerRowDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:C4" xr:uid="{6B0FEC07-A289-4DD7-9AA3-942A208569DC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{706C33D8-2539-44AD-8F09-1C69D1BADD10}" name="时间" totalsRowLabel="汇总" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{5B85BA76-96A6-4E7F-BA96-E854A4E048D2}" name="金额" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{6A2309A0-B070-483F-B4FB-CC587230D6DE}" name="备注" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{706C33D8-2539-44AD-8F09-1C69D1BADD10}" name="时间" totalsRowLabel="汇总" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5B85BA76-96A6-4E7F-BA96-E854A4E048D2}" name="金额" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6A2309A0-B070-483F-B4FB-CC587230D6DE}" name="备注" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B194F46E-8F57-422C-8A5F-6D44597A2535}" name="表1" displayName="表1" ref="A1:B6" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B194F46E-8F57-422C-8A5F-6D44597A2535}" name="表1" displayName="表1" ref="A1:B6" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
   <autoFilter ref="A1:B6" xr:uid="{B194F46E-8F57-422C-8A5F-6D44597A2535}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C0B6F54A-1A21-4D70-A06D-5D3A47451927}" name="时间/月" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{9483B301-81B1-46F7-A5CE-3716BB6B3AB7}" name="总支出/元" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{C0B6F54A-1A21-4D70-A06D-5D3A47451927}" name="时间/月" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9483B301-81B1-46F7-A5CE-3716BB6B3AB7}" name="总支出/元" dataDxfId="0">
       <calculatedColumnFormula>SUM('11月支出'!D:D)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2289,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C324823-1A2E-4DED-9091-D19787F997CE}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2302,93 +2308,93 @@
     <col min="5" max="5" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="49" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="48" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57">
+    <row r="2" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56">
         <v>44855</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="58">
         <v>2600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60">
+    <row r="3" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59">
         <v>44859</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="61">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63">
+    <row r="4" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62">
         <v>44863</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="64">
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+    <row r="5" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
         <v>44864</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="47">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57">
+    <row r="6" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56">
         <v>44865</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="65">
         <v>420</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2405,7 +2411,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2899,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFCE85-0C1A-4EF3-BFDD-317252E50D15}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3296,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF940977-DBB8-4822-B389-2267D28282CA}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3363,141 +3369,138 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50">
+    <row r="4" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
         <v>44928</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="47">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+    <row r="5" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
         <v>44932</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52">
         <v>641.64</v>
       </c>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50">
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
         <v>44934</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="47">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50">
+    <row r="7" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49">
         <v>44937</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="47">
         <v>1860</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50">
+    <row r="8" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
         <v>44940</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50">
+    <row r="9" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
         <v>44943</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>3.5</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>100</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50">
+    <row r="10" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
         <v>44943</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="47">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51">
+    <row r="11" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="67">
         <v>44945</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53">
+      <c r="F11" s="69">
         <v>140</v>
       </c>
-      <c r="G11" s="52"/>
-    </row>
-    <row r="12" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50">
+    </row>
+    <row r="12" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
         <v>44945</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="47">
         <v>600</v>
       </c>
     </row>
@@ -3516,7 +3519,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3552,36 +3555,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+    <row r="2" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45">
         <v>44958</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="47">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+    <row r="3" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45">
         <v>44959</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47">
         <v>250</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
@@ -3599,7 +3602,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="A5" s="33">
         <v>44961</v>
       </c>
       <c r="C5" s="1" t="s">

--- a/2022年下半年/2022年下半年-芒海小学-记账本.xlsx
+++ b/2022年下半年/2022年下半年-芒海小学-记账本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\2022年下半年\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EFFFAB-2F64-4146-93CC-18C0B6DCA9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6419E3C-7F1F-4C53-87F6-B6ADF2DAACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10月支出" sheetId="5" r:id="rId1"/>
@@ -411,10 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>化学药品原药*消毒凝胶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单价/元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,6 +521,10 @@
   </si>
   <si>
     <t>幼儿园门口灯笼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,15 +1000,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2411,8 +2402,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2905,8 +2896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EFCE85-0C1A-4EF3-BFDD-317252E50D15}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2932,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>85</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>10</v>
@@ -3081,7 +3072,7 @@
         <v>66</v>
       </c>
       <c r="F11" s="3">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3128,7 +3119,7 @@
         <v>44911</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -3168,13 +3159,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D18" s="1">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3">
         <v>240</v>
@@ -3202,7 +3193,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="39">
         <v>4480</v>
@@ -3216,13 +3207,13 @@
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1">
         <v>3.5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3">
         <v>700</v>
@@ -3242,7 +3233,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3">
         <v>55</v>
@@ -3262,7 +3253,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="3">
         <v>350</v>
@@ -3282,7 +3273,7 @@
         <v>29.9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3">
         <v>29.9</v>
@@ -3302,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF940977-DBB8-4822-B389-2267D28282CA}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3329,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>10</v>
@@ -3377,7 +3368,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="47">
         <v>130</v>
@@ -3391,7 +3382,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
@@ -3408,7 +3399,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="47">
         <v>200</v>
@@ -3422,13 +3413,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="47">
         <v>1860</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
@@ -3439,7 +3430,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F8" s="47">
         <v>65</v>
@@ -3453,7 +3444,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="46">
         <v>3.5</v>
@@ -3470,23 +3461,23 @@
         <v>44943</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="47">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67">
+    <row r="11" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
         <v>44945</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="69">
+      <c r="C11" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="47">
         <v>140</v>
       </c>
     </row>
@@ -3498,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="47">
         <v>600</v>
@@ -3543,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>10</v>
@@ -3563,7 +3554,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="47">
         <v>237</v>
@@ -3577,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -3592,7 +3583,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3606,10 +3597,10 @@
         <v>44961</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1">
         <v>28</v>
@@ -3623,10 +3614,10 @@
         <v>44960</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F6" s="3">
         <v>511</v>
@@ -3716,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6044A0AF-637D-4153-B822-2E80B9B8F304}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3777,7 +3768,7 @@
       </c>
       <c r="D3" s="26">
         <f>SUM(B:B)</f>
-        <v>39621.93</v>
+        <v>39631.93</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3"/>
@@ -3788,14 +3779,14 @@
       </c>
       <c r="B4" s="3">
         <f>SUM('12月支出'!F:F)</f>
-        <v>12428.67</v>
+        <v>12438.67</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="26">
         <f>D2-D3</f>
-        <v>-621.93000000000029</v>
+        <v>-631.93000000000029</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -3809,7 +3800,7 @@
         <v>4434.6399999999994</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
